--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W15_H200_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W15_H200_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7123287671232876</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5045592705167173</v>
+        <v>0.4802431610942249</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08350692816745979</v>
+        <v>0.08864822169384445</v>
       </c>
       <c r="J2" t="n">
-        <v>1085.223496035293</v>
+        <v>1156.366339742671</v>
       </c>
       <c r="K2" t="n">
-        <v>1504077.124904686</v>
+        <v>1711464.608332338</v>
       </c>
       <c r="L2" t="n">
-        <v>1226.408221150154</v>
+        <v>1308.229570194902</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7172005689590519</v>
+        <v>0.6782071813546293</v>
       </c>
     </row>
   </sheetData>
